--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-05.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1862"/>
+  <dimension ref="A1:G1798"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47754,10 +47754,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="G1741" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1741" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1742">
@@ -47787,10 +47785,8 @@
           <t>0.11</t>
         </is>
       </c>
-      <c r="G1742" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1742" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1743">
@@ -47824,10 +47820,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G1743" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1743" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1744">
@@ -47861,10 +47855,8 @@
           <t>218.0K</t>
         </is>
       </c>
-      <c r="G1744" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1744" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1745">
@@ -47898,10 +47890,8 @@
           <t>1888.0K</t>
         </is>
       </c>
-      <c r="G1745" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1745" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1746">
@@ -47935,10 +47925,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G1746" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1746" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1747">
@@ -47968,10 +47956,8 @@
           <t>222.0K</t>
         </is>
       </c>
-      <c r="G1747" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1747" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1748">
@@ -48005,10 +47991,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G1748" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1748" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1749">
@@ -48042,10 +48026,8 @@
           <t>4.18M</t>
         </is>
       </c>
-      <c r="G1749" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1749" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1750">
@@ -48079,10 +48061,8 @@
           <t>-1.9%</t>
         </is>
       </c>
-      <c r="G1750" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1750" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1751">
@@ -48112,10 +48092,8 @@
         </is>
       </c>
       <c r="F1751" t="inlineStr"/>
-      <c r="G1751" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1751" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1752">
@@ -48145,10 +48123,8 @@
           <t>-4</t>
         </is>
       </c>
-      <c r="G1752" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1752" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1753">
@@ -48178,10 +48154,8 @@
           <t>-2</t>
         </is>
       </c>
-      <c r="G1753" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1753" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1754">
@@ -48207,10 +48181,8 @@
       </c>
       <c r="E1754" t="inlineStr"/>
       <c r="F1754" t="inlineStr"/>
-      <c r="G1754" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1754" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1755">
@@ -48236,10 +48208,8 @@
       </c>
       <c r="E1755" t="inlineStr"/>
       <c r="F1755" t="inlineStr"/>
-      <c r="G1755" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1755" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1756">
@@ -48265,10 +48235,8 @@
       </c>
       <c r="E1756" t="inlineStr"/>
       <c r="F1756" t="inlineStr"/>
-      <c r="G1756" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1756" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1757">
@@ -48294,10 +48262,8 @@
       </c>
       <c r="E1757" t="inlineStr"/>
       <c r="F1757" t="inlineStr"/>
-      <c r="G1757" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1757" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1758">
@@ -48323,44 +48289,50 @@
       </c>
       <c r="E1758" t="inlineStr"/>
       <c r="F1758" t="inlineStr"/>
-      <c r="G1758" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1758" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1759">
       <c r="A1759" t="inlineStr">
         <is>
-          <t>Friday April 25 2025</t>
-        </is>
-      </c>
-      <c r="B1759" t="inlineStr"/>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="B1759" t="inlineStr">
+        <is>
+          <t>EIA Distillate Stocks ChangeAPR/25</t>
+        </is>
+      </c>
       <c r="C1759" t="inlineStr"/>
-      <c r="D1759" t="inlineStr"/>
+      <c r="D1759" t="inlineStr">
+        <is>
+          <t>-2.353M</t>
+        </is>
+      </c>
       <c r="E1759" t="inlineStr"/>
       <c r="F1759" t="inlineStr"/>
-      <c r="G1759" t="inlineStr"/>
+      <c r="G1759" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1760">
       <c r="A1760" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1760" t="inlineStr">
         <is>
-          <t>Fed Balance SheetAPR/23</t>
-        </is>
-      </c>
-      <c r="C1760" t="inlineStr">
-        <is>
-          <t>$6.73T</t>
-        </is>
-      </c>
+          <t>EIA Gasoline Production ChangeAPR/25</t>
+        </is>
+      </c>
+      <c r="C1760" t="inlineStr"/>
       <c r="D1760" t="inlineStr">
         <is>
-          <t>$6.73T</t>
+          <t>0.661M</t>
         </is>
       </c>
       <c r="E1760" t="inlineStr"/>
@@ -48374,84 +48346,72 @@
     <row r="1761">
       <c r="A1761" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1761" t="inlineStr">
         <is>
-          <t>Fed Kashkari Speech</t>
+          <t>EIA Heating Oil Stocks ChangeAPR/25</t>
         </is>
       </c>
       <c r="C1761" t="inlineStr"/>
-      <c r="D1761" t="inlineStr"/>
+      <c r="D1761" t="inlineStr">
+        <is>
+          <t>-0.021M</t>
+        </is>
+      </c>
       <c r="E1761" t="inlineStr"/>
       <c r="F1761" t="inlineStr"/>
       <c r="G1761" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1762">
       <c r="A1762" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1762" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalAPR</t>
+          <t>EIA Refinery Crude Runs ChangeAPR/25</t>
         </is>
       </c>
       <c r="C1762" t="inlineStr"/>
       <c r="D1762" t="inlineStr">
         <is>
-          <t>57.0</t>
-        </is>
-      </c>
-      <c r="E1762" t="inlineStr">
-        <is>
-          <t>50.8</t>
-        </is>
-      </c>
-      <c r="F1762" t="inlineStr">
-        <is>
-          <t>50.8</t>
-        </is>
-      </c>
+          <t>0.325M</t>
+        </is>
+      </c>
+      <c r="E1762" t="inlineStr"/>
+      <c r="F1762" t="inlineStr"/>
       <c r="G1762" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1763">
       <c r="A1763" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1763" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalAPR</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1763" t="inlineStr"/>
       <c r="D1763" t="inlineStr">
         <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="E1763" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="F1763" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
+          <t>4.210%</t>
+        </is>
+      </c>
+      <c r="E1763" t="inlineStr"/>
+      <c r="F1763" t="inlineStr"/>
       <c r="G1763" t="inlineStr">
         <is>
           <t>3</t>
@@ -48461,61 +48421,37 @@
     <row r="1764">
       <c r="A1764" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1764" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations FinalAPR</t>
-        </is>
-      </c>
+          <t>Thursday May 01 2025</t>
+        </is>
+      </c>
+      <c r="B1764" t="inlineStr"/>
       <c r="C1764" t="inlineStr"/>
-      <c r="D1764" t="inlineStr">
-        <is>
-          <t>52.6</t>
-        </is>
-      </c>
-      <c r="E1764" t="inlineStr">
-        <is>
-          <t>47.1</t>
-        </is>
-      </c>
-      <c r="F1764" t="inlineStr">
-        <is>
-          <t>47.2</t>
-        </is>
-      </c>
-      <c r="G1764" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="D1764" t="inlineStr"/>
+      <c r="E1764" t="inlineStr"/>
+      <c r="F1764" t="inlineStr"/>
+      <c r="G1764" t="inlineStr"/>
     </row>
     <row r="1765">
       <c r="A1765" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1765" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalAPR</t>
+          <t>Challenger Job CutsAPR</t>
         </is>
       </c>
       <c r="C1765" t="inlineStr"/>
       <c r="D1765" t="inlineStr">
         <is>
-          <t>63.8</t>
-        </is>
-      </c>
-      <c r="E1765" t="inlineStr">
-        <is>
-          <t>56.5</t>
-        </is>
-      </c>
+          <t>275.24K</t>
+        </is>
+      </c>
+      <c r="E1765" t="inlineStr"/>
       <c r="F1765" t="inlineStr">
         <is>
-          <t>56.5</t>
+          <t>290K</t>
         </is>
       </c>
       <c r="G1765" t="inlineStr">
@@ -48527,55 +48463,55 @@
     <row r="1766">
       <c r="A1766" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1766" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalAPR</t>
+          <t>Initial Jobless ClaimsAPR/26</t>
         </is>
       </c>
       <c r="C1766" t="inlineStr"/>
       <c r="D1766" t="inlineStr">
         <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="E1766" t="inlineStr">
-        <is>
-          <t>6.7%</t>
-        </is>
-      </c>
+          <t>222K</t>
+        </is>
+      </c>
+      <c r="E1766" t="inlineStr"/>
       <c r="F1766" t="inlineStr">
         <is>
-          <t>6.7%</t>
+          <t>225.0K</t>
         </is>
       </c>
       <c r="G1766" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1767">
       <c r="A1767" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1767" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountAPR/25</t>
+          <t>Continuing Jobless ClaimsAPR/19</t>
         </is>
       </c>
       <c r="C1767" t="inlineStr"/>
       <c r="D1767" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>1841K</t>
         </is>
       </c>
       <c r="E1767" t="inlineStr"/>
-      <c r="F1767" t="inlineStr"/>
+      <c r="F1767" t="inlineStr">
+        <is>
+          <t>1844.0K</t>
+        </is>
+      </c>
       <c r="G1767" t="inlineStr">
         <is>
           <t>3</t>
@@ -48585,22 +48521,26 @@
     <row r="1768">
       <c r="A1768" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1768" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountAPR/25</t>
+          <t>Jobless Claims 4-week AverageAPR/26</t>
         </is>
       </c>
       <c r="C1768" t="inlineStr"/>
       <c r="D1768" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>220.25K</t>
         </is>
       </c>
       <c r="E1768" t="inlineStr"/>
-      <c r="F1768" t="inlineStr"/>
+      <c r="F1768" t="inlineStr">
+        <is>
+          <t>222.0K</t>
+        </is>
+      </c>
       <c r="G1768" t="inlineStr">
         <is>
           <t>3</t>
@@ -48610,90 +48550,150 @@
     <row r="1769">
       <c r="A1769" t="inlineStr">
         <is>
-          <t>Saturday April 26 2025</t>
-        </is>
-      </c>
-      <c r="B1769" t="inlineStr"/>
+          <t>07:15 PM</t>
+        </is>
+      </c>
+      <c r="B1769" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Manufacturing PMI FinalAPR</t>
+        </is>
+      </c>
       <c r="C1769" t="inlineStr"/>
-      <c r="D1769" t="inlineStr"/>
-      <c r="E1769" t="inlineStr"/>
-      <c r="F1769" t="inlineStr"/>
-      <c r="G1769" t="inlineStr"/>
+      <c r="D1769" t="inlineStr">
+        <is>
+          <t>50.2</t>
+        </is>
+      </c>
+      <c r="E1769" t="inlineStr">
+        <is>
+          <t>50.7</t>
+        </is>
+      </c>
+      <c r="F1769" t="inlineStr">
+        <is>
+          <t>50.7</t>
+        </is>
+      </c>
+      <c r="G1769" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1770">
       <c r="A1770" t="inlineStr">
         <is>
-          <t>Sunday April 27 2025</t>
-        </is>
-      </c>
-      <c r="B1770" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1770" t="inlineStr">
+        <is>
+          <t>ISM Manufacturing PMIAPR</t>
+        </is>
+      </c>
       <c r="C1770" t="inlineStr"/>
-      <c r="D1770" t="inlineStr"/>
-      <c r="E1770" t="inlineStr"/>
-      <c r="F1770" t="inlineStr"/>
-      <c r="G1770" t="inlineStr"/>
+      <c r="D1770" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E1770" t="inlineStr">
+        <is>
+          <t>47.9</t>
+        </is>
+      </c>
+      <c r="F1770" t="inlineStr">
+        <is>
+          <t>47.2</t>
+        </is>
+      </c>
+      <c r="G1770" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="1771">
       <c r="A1771" t="inlineStr">
         <is>
-          <t>Monday April 28 2025</t>
-        </is>
-      </c>
-      <c r="B1771" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1771" t="inlineStr">
+        <is>
+          <t>ISM Manufacturing EmploymentAPR</t>
+        </is>
+      </c>
       <c r="C1771" t="inlineStr"/>
-      <c r="D1771" t="inlineStr"/>
+      <c r="D1771" t="inlineStr">
+        <is>
+          <t>44.7</t>
+        </is>
+      </c>
       <c r="E1771" t="inlineStr"/>
-      <c r="F1771" t="inlineStr"/>
-      <c r="G1771" t="inlineStr"/>
+      <c r="F1771" t="inlineStr">
+        <is>
+          <t>44.1</t>
+        </is>
+      </c>
+      <c r="G1771" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1772">
       <c r="A1772" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1772" t="inlineStr">
         <is>
-          <t>Dallas Fed Manufacturing IndexAPR</t>
+          <t>Construction Spending MoMMAR</t>
         </is>
       </c>
       <c r="C1772" t="inlineStr"/>
       <c r="D1772" t="inlineStr">
         <is>
-          <t>-16.3</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="E1772" t="inlineStr"/>
       <c r="F1772" t="inlineStr">
         <is>
-          <t>-15</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G1772" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1773">
       <c r="A1773" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1773" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>ISM Manufacturing New OrdersAPR</t>
         </is>
       </c>
       <c r="C1773" t="inlineStr"/>
       <c r="D1773" t="inlineStr">
         <is>
-          <t>4.225%</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="E1773" t="inlineStr"/>
-      <c r="F1773" t="inlineStr"/>
+      <c r="F1773" t="inlineStr">
+        <is>
+          <t>44.3</t>
+        </is>
+      </c>
       <c r="G1773" t="inlineStr">
         <is>
           <t>3</t>
@@ -48703,22 +48703,26 @@
     <row r="1774">
       <c r="A1774" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1774" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>ISM Manufacturing PricesAPR</t>
         </is>
       </c>
       <c r="C1774" t="inlineStr"/>
       <c r="D1774" t="inlineStr">
         <is>
-          <t>4.050%</t>
+          <t>69.4</t>
         </is>
       </c>
       <c r="E1774" t="inlineStr"/>
-      <c r="F1774" t="inlineStr"/>
+      <c r="F1774" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
       <c r="G1774" t="inlineStr">
         <is>
           <t>3</t>
@@ -48728,29 +48732,45 @@
     <row r="1775">
       <c r="A1775" t="inlineStr">
         <is>
-          <t>Tuesday April 29 2025</t>
-        </is>
-      </c>
-      <c r="B1775" t="inlineStr"/>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="B1775" t="inlineStr">
+        <is>
+          <t>EIA Natural Gas Stocks ChangeAPR/25</t>
+        </is>
+      </c>
       <c r="C1775" t="inlineStr"/>
-      <c r="D1775" t="inlineStr"/>
+      <c r="D1775" t="inlineStr">
+        <is>
+          <t>88Bcf</t>
+        </is>
+      </c>
       <c r="E1775" t="inlineStr"/>
       <c r="F1775" t="inlineStr"/>
-      <c r="G1775" t="inlineStr"/>
+      <c r="G1775" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1776">
       <c r="A1776" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1776" t="inlineStr">
         <is>
-          <t>Treasury Refunding Financing Estimates</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1776" t="inlineStr"/>
-      <c r="D1776" t="inlineStr"/>
+      <c r="D1776" t="inlineStr">
+        <is>
+          <t>4.220%</t>
+        </is>
+      </c>
       <c r="E1776" t="inlineStr"/>
       <c r="F1776" t="inlineStr"/>
       <c r="G1776" t="inlineStr">
@@ -48762,343 +48782,323 @@
     <row r="1777">
       <c r="A1777" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1777" t="inlineStr">
         <is>
-          <t>Goods Trade Balance AdvMAR</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1777" t="inlineStr"/>
       <c r="D1777" t="inlineStr">
         <is>
-          <t>$-147.91B</t>
+          <t>4.225%</t>
         </is>
       </c>
       <c r="E1777" t="inlineStr"/>
-      <c r="F1777" t="inlineStr">
-        <is>
-          <t>$-140.0B</t>
-        </is>
-      </c>
+      <c r="F1777" t="inlineStr"/>
       <c r="G1777" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1778">
       <c r="A1778" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1778" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoM AdvMAR</t>
+          <t>15-Year Mortgage RateMAY/01</t>
         </is>
       </c>
       <c r="C1778" t="inlineStr"/>
-      <c r="D1778" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="D1778" t="inlineStr"/>
       <c r="E1778" t="inlineStr"/>
-      <c r="F1778" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
+      <c r="F1778" t="inlineStr"/>
       <c r="G1778" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1779">
       <c r="A1779" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1779" t="inlineStr">
         <is>
-          <t>Wholesale Inventories MoM AdvMAR</t>
+          <t>30-Year Mortgage RateMAY/01</t>
         </is>
       </c>
       <c r="C1779" t="inlineStr"/>
       <c r="D1779" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>6.81%</t>
         </is>
       </c>
       <c r="E1779" t="inlineStr"/>
-      <c r="F1779" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
+      <c r="F1779" t="inlineStr"/>
       <c r="G1779" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1780">
       <c r="A1780" t="inlineStr">
         <is>
-          <t>06:25 PM</t>
-        </is>
-      </c>
-      <c r="B1780" t="inlineStr">
-        <is>
-          <t>Redbook YoYAPR/26</t>
-        </is>
-      </c>
+          <t>Friday May 02 2025</t>
+        </is>
+      </c>
+      <c r="B1780" t="inlineStr"/>
       <c r="C1780" t="inlineStr"/>
-      <c r="D1780" t="inlineStr">
-        <is>
-          <t>7.4%</t>
-        </is>
-      </c>
+      <c r="D1780" t="inlineStr"/>
       <c r="E1780" t="inlineStr"/>
       <c r="F1780" t="inlineStr"/>
-      <c r="G1780" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1780" t="inlineStr"/>
     </row>
     <row r="1781">
       <c r="A1781" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1781" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYFEB</t>
+          <t>Fed Balance SheetAPR/30</t>
         </is>
       </c>
       <c r="C1781" t="inlineStr"/>
       <c r="D1781" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>$6.73T</t>
         </is>
       </c>
       <c r="E1781" t="inlineStr"/>
-      <c r="F1781" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
+      <c r="F1781" t="inlineStr"/>
       <c r="G1781" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1782">
       <c r="A1782" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1782" t="inlineStr">
         <is>
-          <t>House Price IndexFEB</t>
+          <t>Non Farm PayrollsAPR</t>
         </is>
       </c>
       <c r="C1782" t="inlineStr"/>
       <c r="D1782" t="inlineStr">
         <is>
-          <t>436.5</t>
-        </is>
-      </c>
-      <c r="E1782" t="inlineStr"/>
+          <t>228K</t>
+        </is>
+      </c>
+      <c r="E1782" t="inlineStr">
+        <is>
+          <t>130K</t>
+        </is>
+      </c>
       <c r="F1782" t="inlineStr">
         <is>
-          <t>441.2</t>
+          <t>140K</t>
         </is>
       </c>
       <c r="G1782" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1783">
       <c r="A1783" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1783" t="inlineStr">
         <is>
-          <t>House Price Index MoMFEB</t>
+          <t>Unemployment RateAPR</t>
         </is>
       </c>
       <c r="C1783" t="inlineStr"/>
       <c r="D1783" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E1783" t="inlineStr"/>
+          <t>4.2%</t>
+        </is>
+      </c>
+      <c r="E1783" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="F1783" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="G1783" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1784">
       <c r="A1784" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1784" t="inlineStr">
         <is>
-          <t>House Price Index YoYFEB</t>
+          <t>Average Hourly Earnings MoMAPR</t>
         </is>
       </c>
       <c r="C1784" t="inlineStr"/>
       <c r="D1784" t="inlineStr">
         <is>
-          <t>4.8%</t>
-        </is>
-      </c>
-      <c r="E1784" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="E1784" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F1784" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G1784" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1785">
       <c r="A1785" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1785" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMFEB</t>
+          <t>Average Hourly Earnings YoYAPR</t>
         </is>
       </c>
       <c r="C1785" t="inlineStr"/>
       <c r="D1785" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="E1785" t="inlineStr"/>
       <c r="F1785" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="G1785" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1786">
       <c r="A1786" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1786" t="inlineStr">
         <is>
-          <t>JOLTs Job OpeningsMAR</t>
+          <t>Participation RateAPR</t>
         </is>
       </c>
       <c r="C1786" t="inlineStr"/>
       <c r="D1786" t="inlineStr">
         <is>
-          <t>7.568M</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="E1786" t="inlineStr"/>
       <c r="F1786" t="inlineStr">
         <is>
-          <t>7.4M</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="G1786" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1787">
       <c r="A1787" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1787" t="inlineStr">
         <is>
-          <t>CB Consumer ConfidenceAPR</t>
+          <t>Average Weekly HoursAPR</t>
         </is>
       </c>
       <c r="C1787" t="inlineStr"/>
       <c r="D1787" t="inlineStr">
         <is>
-          <t>92.9</t>
+          <t>34.2</t>
         </is>
       </c>
       <c r="E1787" t="inlineStr">
         <is>
-          <t>88.5</t>
+          <t>34.2</t>
         </is>
       </c>
       <c r="F1787" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>34.2</t>
         </is>
       </c>
       <c r="G1787" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1788">
       <c r="A1788" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1788" t="inlineStr">
         <is>
-          <t>JOLTs Job QuitsMAR</t>
+          <t>Government PayrollsAPR</t>
         </is>
       </c>
       <c r="C1788" t="inlineStr"/>
       <c r="D1788" t="inlineStr">
         <is>
-          <t>3.195M</t>
+          <t>19K</t>
         </is>
       </c>
       <c r="E1788" t="inlineStr"/>
       <c r="F1788" t="inlineStr">
         <is>
-          <t>3.19M</t>
+          <t>-3K</t>
         </is>
       </c>
       <c r="G1788" t="inlineStr">
@@ -49110,24 +49110,24 @@
     <row r="1789">
       <c r="A1789" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1789" t="inlineStr">
         <is>
-          <t>Dallas Fed Services IndexAPR</t>
+          <t>Manufacturing PayrollsAPR</t>
         </is>
       </c>
       <c r="C1789" t="inlineStr"/>
       <c r="D1789" t="inlineStr">
         <is>
-          <t>-11.3</t>
+          <t>1K</t>
         </is>
       </c>
       <c r="E1789" t="inlineStr"/>
       <c r="F1789" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>5K</t>
         </is>
       </c>
       <c r="G1789" t="inlineStr">
@@ -49139,24 +49139,28 @@
     <row r="1790">
       <c r="A1790" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1790" t="inlineStr">
         <is>
-          <t>Dallas Fed Services Revenues IndexAPR</t>
+          <t>Nonfarm Payrolls PrivateAPR</t>
         </is>
       </c>
       <c r="C1790" t="inlineStr"/>
       <c r="D1790" t="inlineStr">
         <is>
-          <t>1.3</t>
-        </is>
-      </c>
-      <c r="E1790" t="inlineStr"/>
+          <t>209K</t>
+        </is>
+      </c>
+      <c r="E1790" t="inlineStr">
+        <is>
+          <t>125K</t>
+        </is>
+      </c>
       <c r="F1790" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>133K</t>
         </is>
       </c>
       <c r="G1790" t="inlineStr">
@@ -49168,35 +49172,55 @@
     <row r="1791">
       <c r="A1791" t="inlineStr">
         <is>
-          <t>Wednesday April 30 2025</t>
-        </is>
-      </c>
-      <c r="B1791" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B1791" t="inlineStr">
+        <is>
+          <t>U-6 Unemployment RateAPR</t>
+        </is>
+      </c>
       <c r="C1791" t="inlineStr"/>
-      <c r="D1791" t="inlineStr"/>
+      <c r="D1791" t="inlineStr">
+        <is>
+          <t>7.9%</t>
+        </is>
+      </c>
       <c r="E1791" t="inlineStr"/>
-      <c r="F1791" t="inlineStr"/>
-      <c r="G1791" t="inlineStr"/>
+      <c r="F1791" t="inlineStr">
+        <is>
+          <t>8.0%</t>
+        </is>
+      </c>
+      <c r="G1791" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1792">
       <c r="A1792" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1792" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeAPR/25</t>
+          <t>Factory Orders MoMMAR</t>
         </is>
       </c>
       <c r="C1792" t="inlineStr"/>
       <c r="D1792" t="inlineStr">
         <is>
-          <t>-4.565M</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="E1792" t="inlineStr"/>
-      <c r="F1792" t="inlineStr"/>
+      <c r="F1792" t="inlineStr">
+        <is>
+          <t>5.4%</t>
+        </is>
+      </c>
       <c r="G1792" t="inlineStr">
         <is>
           <t>2</t>
@@ -49206,45 +49230,45 @@
     <row r="1793">
       <c r="A1793" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1793" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateAPR/25</t>
+          <t>Factory Orders ex TransportationMAR</t>
         </is>
       </c>
       <c r="C1793" t="inlineStr"/>
       <c r="D1793" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="E1793" t="inlineStr"/>
-      <c r="F1793" t="inlineStr"/>
+      <c r="F1793" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1793" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1794">
       <c r="A1794" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1794" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsAPR/25</t>
+          <t>Baker Hughes Oil Rig CountMAY/02</t>
         </is>
       </c>
       <c r="C1794" t="inlineStr"/>
-      <c r="D1794" t="inlineStr">
-        <is>
-          <t>-12.7%</t>
-        </is>
-      </c>
+      <c r="D1794" t="inlineStr"/>
       <c r="E1794" t="inlineStr"/>
       <c r="F1794" t="inlineStr"/>
       <c r="G1794" t="inlineStr">
@@ -49256,20 +49280,16 @@
     <row r="1795">
       <c r="A1795" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1795" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexAPR/25</t>
+          <t>Baker Hughes Total Rigs CountMAY/02</t>
         </is>
       </c>
       <c r="C1795" t="inlineStr"/>
-      <c r="D1795" t="inlineStr">
-        <is>
-          <t>233.5</t>
-        </is>
-      </c>
+      <c r="D1795" t="inlineStr"/>
       <c r="E1795" t="inlineStr"/>
       <c r="F1795" t="inlineStr"/>
       <c r="G1795" t="inlineStr">
@@ -49279,20 +49299,16 @@
       </c>
     </row>
     <row r="1796">
-      <c r="A1796" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
+      <c r="A1796" t="inlineStr"/>
       <c r="B1796" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexAPR/25</t>
+          <t>Total Vehicle SalesAPR</t>
         </is>
       </c>
       <c r="C1796" t="inlineStr"/>
       <c r="D1796" t="inlineStr">
         <is>
-          <t>673.6</t>
+          <t>17.77M</t>
         </is>
       </c>
       <c r="E1796" t="inlineStr"/>
@@ -49306,1792 +49322,28 @@
     <row r="1797">
       <c r="A1797" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1797" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexAPR/25</t>
-        </is>
-      </c>
+          <t>Saturday May 03 2025</t>
+        </is>
+      </c>
+      <c r="B1797" t="inlineStr"/>
       <c r="C1797" t="inlineStr"/>
-      <c r="D1797" t="inlineStr">
-        <is>
-          <t>153.4</t>
-        </is>
-      </c>
+      <c r="D1797" t="inlineStr"/>
       <c r="E1797" t="inlineStr"/>
       <c r="F1797" t="inlineStr"/>
-      <c r="G1797" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1797" t="inlineStr"/>
     </row>
     <row r="1798">
       <c r="A1798" t="inlineStr">
         <is>
-          <t>05:45 PM</t>
-        </is>
-      </c>
-      <c r="B1798" t="inlineStr">
-        <is>
-          <t>ADP Employment ChangeAPR</t>
-        </is>
-      </c>
+          <t>Monday May 05 2025</t>
+        </is>
+      </c>
+      <c r="B1798" t="inlineStr"/>
       <c r="C1798" t="inlineStr"/>
-      <c r="D1798" t="inlineStr">
-        <is>
-          <t>155K</t>
-        </is>
-      </c>
+      <c r="D1798" t="inlineStr"/>
       <c r="E1798" t="inlineStr"/>
-      <c r="F1798" t="inlineStr">
-        <is>
-          <t>110K</t>
-        </is>
-      </c>
-      <c r="G1798" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1799">
-      <c r="A1799" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1799" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1799" t="inlineStr"/>
-      <c r="D1799" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E1799" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1799" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G1799" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1800">
-      <c r="A1800" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1800" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate QoQ AdvQ1</t>
-        </is>
-      </c>
-      <c r="C1800" t="inlineStr"/>
-      <c r="D1800" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="E1800" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F1800" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G1800" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1801">
-      <c r="A1801" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1801" t="inlineStr">
-        <is>
-          <t>Personal Income MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1801" t="inlineStr"/>
-      <c r="D1801" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E1801" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F1801" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G1801" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1802">
-      <c r="A1802" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1802" t="inlineStr">
-        <is>
-          <t>Personal Spending MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1802" t="inlineStr"/>
-      <c r="D1802" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E1802" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F1802" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G1802" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1803">
-      <c r="A1803" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1803" t="inlineStr">
-        <is>
-          <t>Employment Cost - Benefits QoQQ1</t>
-        </is>
-      </c>
-      <c r="C1803" t="inlineStr"/>
-      <c r="D1803" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E1803" t="inlineStr"/>
-      <c r="F1803" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="G1803" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1804">
-      <c r="A1804" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1804" t="inlineStr">
-        <is>
-          <t>Employment Cost - Wages QoQQ1</t>
-        </is>
-      </c>
-      <c r="C1804" t="inlineStr"/>
-      <c r="D1804" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="E1804" t="inlineStr"/>
-      <c r="F1804" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="G1804" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1805">
-      <c r="A1805" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1805" t="inlineStr">
-        <is>
-          <t>Employment Cost Index QoQQ1</t>
-        </is>
-      </c>
-      <c r="C1805" t="inlineStr"/>
-      <c r="D1805" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="E1805" t="inlineStr"/>
-      <c r="F1805" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G1805" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1806">
-      <c r="A1806" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1806" t="inlineStr">
-        <is>
-          <t>GDP Price Index QoQ AdvQ1</t>
-        </is>
-      </c>
-      <c r="C1806" t="inlineStr"/>
-      <c r="D1806" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="E1806" t="inlineStr"/>
-      <c r="F1806" t="inlineStr">
-        <is>
-          <t>127.3%</t>
-        </is>
-      </c>
-      <c r="G1806" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1807">
-      <c r="A1807" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1807" t="inlineStr">
-        <is>
-          <t>PCE Price Index MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1807" t="inlineStr"/>
-      <c r="D1807" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E1807" t="inlineStr"/>
-      <c r="F1807" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="G1807" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1808">
-      <c r="A1808" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1808" t="inlineStr">
-        <is>
-          <t>PCE Price Index YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1808" t="inlineStr"/>
-      <c r="D1808" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="E1808" t="inlineStr"/>
-      <c r="F1808" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="G1808" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1809">
-      <c r="A1809" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1809" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1809" t="inlineStr"/>
-      <c r="D1809" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="E1809" t="inlineStr"/>
-      <c r="F1809" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="G1809" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1810">
-      <c r="A1810" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1810" t="inlineStr">
-        <is>
-          <t>Core PCE Prices QoQ AdvQ1</t>
-        </is>
-      </c>
-      <c r="C1810" t="inlineStr"/>
-      <c r="D1810" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="E1810" t="inlineStr"/>
-      <c r="F1810" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="G1810" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1811">
-      <c r="A1811" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1811" t="inlineStr">
-        <is>
-          <t>GDP Sales QoQ AdvQ1</t>
-        </is>
-      </c>
-      <c r="C1811" t="inlineStr"/>
-      <c r="D1811" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E1811" t="inlineStr"/>
-      <c r="F1811" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="G1811" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1812">
-      <c r="A1812" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1812" t="inlineStr">
-        <is>
-          <t>PCE Prices QoQ AdvQ1</t>
-        </is>
-      </c>
-      <c r="C1812" t="inlineStr"/>
-      <c r="D1812" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="E1812" t="inlineStr"/>
-      <c r="F1812" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
-      <c r="G1812" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1813">
-      <c r="A1813" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1813" t="inlineStr">
-        <is>
-          <t>Real Consumer Spending QoQ AdvQ1</t>
-        </is>
-      </c>
-      <c r="C1813" t="inlineStr"/>
-      <c r="D1813" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="E1813" t="inlineStr"/>
-      <c r="F1813" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="G1813" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1814">
-      <c r="A1814" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1814" t="inlineStr">
-        <is>
-          <t>Treasury Refunding Announcement</t>
-        </is>
-      </c>
-      <c r="C1814" t="inlineStr"/>
-      <c r="D1814" t="inlineStr"/>
-      <c r="E1814" t="inlineStr"/>
-      <c r="F1814" t="inlineStr"/>
-      <c r="G1814" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1815">
-      <c r="A1815" t="inlineStr">
-        <is>
-          <t>07:15 PM</t>
-        </is>
-      </c>
-      <c r="B1815" t="inlineStr">
-        <is>
-          <t>Chicago PMIAPR</t>
-        </is>
-      </c>
-      <c r="C1815" t="inlineStr"/>
-      <c r="D1815" t="inlineStr">
-        <is>
-          <t>47.6</t>
-        </is>
-      </c>
-      <c r="E1815" t="inlineStr"/>
-      <c r="F1815" t="inlineStr">
-        <is>
-          <t>47.8</t>
-        </is>
-      </c>
-      <c r="G1815" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1816">
-      <c r="A1816" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1816" t="inlineStr">
-        <is>
-          <t>Pending Home Sales MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1816" t="inlineStr"/>
-      <c r="D1816" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="E1816" t="inlineStr"/>
-      <c r="F1816" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="G1816" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1817">
-      <c r="A1817" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1817" t="inlineStr">
-        <is>
-          <t>Pending Home Sales YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1817" t="inlineStr"/>
-      <c r="D1817" t="inlineStr">
-        <is>
-          <t>-3.6%</t>
-        </is>
-      </c>
-      <c r="E1817" t="inlineStr"/>
-      <c r="F1817" t="inlineStr">
-        <is>
-          <t>-1.5%</t>
-        </is>
-      </c>
-      <c r="G1817" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1818">
-      <c r="A1818" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1818" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeAPR/25</t>
-        </is>
-      </c>
-      <c r="C1818" t="inlineStr"/>
-      <c r="D1818" t="inlineStr">
-        <is>
-          <t>0.244M</t>
-        </is>
-      </c>
-      <c r="E1818" t="inlineStr"/>
-      <c r="F1818" t="inlineStr"/>
-      <c r="G1818" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1819">
-      <c r="A1819" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1819" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeAPR/25</t>
-        </is>
-      </c>
-      <c r="C1819" t="inlineStr"/>
-      <c r="D1819" t="inlineStr">
-        <is>
-          <t>-4.476M</t>
-        </is>
-      </c>
-      <c r="E1819" t="inlineStr"/>
-      <c r="F1819" t="inlineStr"/>
-      <c r="G1819" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1820">
-      <c r="A1820" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1820" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeAPR/25</t>
-        </is>
-      </c>
-      <c r="C1820" t="inlineStr"/>
-      <c r="D1820" t="inlineStr">
-        <is>
-          <t>1.139M</t>
-        </is>
-      </c>
-      <c r="E1820" t="inlineStr"/>
-      <c r="F1820" t="inlineStr"/>
-      <c r="G1820" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1821">
-      <c r="A1821" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1821" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeAPR/25</t>
-        </is>
-      </c>
-      <c r="C1821" t="inlineStr"/>
-      <c r="D1821" t="inlineStr">
-        <is>
-          <t>-0.086M</t>
-        </is>
-      </c>
-      <c r="E1821" t="inlineStr"/>
-      <c r="F1821" t="inlineStr"/>
-      <c r="G1821" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1822">
-      <c r="A1822" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1822" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeAPR/25</t>
-        </is>
-      </c>
-      <c r="C1822" t="inlineStr"/>
-      <c r="D1822" t="inlineStr">
-        <is>
-          <t>-0.062M</t>
-        </is>
-      </c>
-      <c r="E1822" t="inlineStr"/>
-      <c r="F1822" t="inlineStr"/>
-      <c r="G1822" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1823">
-      <c r="A1823" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1823" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeAPR/25</t>
-        </is>
-      </c>
-      <c r="C1823" t="inlineStr"/>
-      <c r="D1823" t="inlineStr">
-        <is>
-          <t>-2.353M</t>
-        </is>
-      </c>
-      <c r="E1823" t="inlineStr"/>
-      <c r="F1823" t="inlineStr"/>
-      <c r="G1823" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1824">
-      <c r="A1824" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1824" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeAPR/25</t>
-        </is>
-      </c>
-      <c r="C1824" t="inlineStr"/>
-      <c r="D1824" t="inlineStr">
-        <is>
-          <t>0.661M</t>
-        </is>
-      </c>
-      <c r="E1824" t="inlineStr"/>
-      <c r="F1824" t="inlineStr"/>
-      <c r="G1824" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1825">
-      <c r="A1825" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1825" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeAPR/25</t>
-        </is>
-      </c>
-      <c r="C1825" t="inlineStr"/>
-      <c r="D1825" t="inlineStr">
-        <is>
-          <t>-0.021M</t>
-        </is>
-      </c>
-      <c r="E1825" t="inlineStr"/>
-      <c r="F1825" t="inlineStr"/>
-      <c r="G1825" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1826">
-      <c r="A1826" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1826" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeAPR/25</t>
-        </is>
-      </c>
-      <c r="C1826" t="inlineStr"/>
-      <c r="D1826" t="inlineStr">
-        <is>
-          <t>0.325M</t>
-        </is>
-      </c>
-      <c r="E1826" t="inlineStr"/>
-      <c r="F1826" t="inlineStr"/>
-      <c r="G1826" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1827">
-      <c r="A1827" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1827" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1827" t="inlineStr"/>
-      <c r="D1827" t="inlineStr">
-        <is>
-          <t>4.210%</t>
-        </is>
-      </c>
-      <c r="E1827" t="inlineStr"/>
-      <c r="F1827" t="inlineStr"/>
-      <c r="G1827" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1828">
-      <c r="A1828" t="inlineStr">
-        <is>
-          <t>Thursday May 01 2025</t>
-        </is>
-      </c>
-      <c r="B1828" t="inlineStr"/>
-      <c r="C1828" t="inlineStr"/>
-      <c r="D1828" t="inlineStr"/>
-      <c r="E1828" t="inlineStr"/>
-      <c r="F1828" t="inlineStr"/>
-      <c r="G1828" t="inlineStr"/>
-    </row>
-    <row r="1829">
-      <c r="A1829" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B1829" t="inlineStr">
-        <is>
-          <t>Challenger Job CutsAPR</t>
-        </is>
-      </c>
-      <c r="C1829" t="inlineStr"/>
-      <c r="D1829" t="inlineStr">
-        <is>
-          <t>275.24K</t>
-        </is>
-      </c>
-      <c r="E1829" t="inlineStr"/>
-      <c r="F1829" t="inlineStr">
-        <is>
-          <t>290K</t>
-        </is>
-      </c>
-      <c r="G1829" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1830">
-      <c r="A1830" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1830" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsAPR/26</t>
-        </is>
-      </c>
-      <c r="C1830" t="inlineStr"/>
-      <c r="D1830" t="inlineStr">
-        <is>
-          <t>222K</t>
-        </is>
-      </c>
-      <c r="E1830" t="inlineStr"/>
-      <c r="F1830" t="inlineStr">
-        <is>
-          <t>225.0K</t>
-        </is>
-      </c>
-      <c r="G1830" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1831">
-      <c r="A1831" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1831" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsAPR/19</t>
-        </is>
-      </c>
-      <c r="C1831" t="inlineStr"/>
-      <c r="D1831" t="inlineStr">
-        <is>
-          <t>1841K</t>
-        </is>
-      </c>
-      <c r="E1831" t="inlineStr"/>
-      <c r="F1831" t="inlineStr">
-        <is>
-          <t>1844.0K</t>
-        </is>
-      </c>
-      <c r="G1831" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1832">
-      <c r="A1832" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1832" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageAPR/26</t>
-        </is>
-      </c>
-      <c r="C1832" t="inlineStr"/>
-      <c r="D1832" t="inlineStr">
-        <is>
-          <t>220.25K</t>
-        </is>
-      </c>
-      <c r="E1832" t="inlineStr"/>
-      <c r="F1832" t="inlineStr">
-        <is>
-          <t>222.0K</t>
-        </is>
-      </c>
-      <c r="G1832" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1833">
-      <c r="A1833" t="inlineStr">
-        <is>
-          <t>07:15 PM</t>
-        </is>
-      </c>
-      <c r="B1833" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMI FinalAPR</t>
-        </is>
-      </c>
-      <c r="C1833" t="inlineStr"/>
-      <c r="D1833" t="inlineStr">
-        <is>
-          <t>50.2</t>
-        </is>
-      </c>
-      <c r="E1833" t="inlineStr">
-        <is>
-          <t>50.7</t>
-        </is>
-      </c>
-      <c r="F1833" t="inlineStr">
-        <is>
-          <t>50.7</t>
-        </is>
-      </c>
-      <c r="G1833" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1834">
-      <c r="A1834" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1834" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing PMIAPR</t>
-        </is>
-      </c>
-      <c r="C1834" t="inlineStr"/>
-      <c r="D1834" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="E1834" t="inlineStr">
-        <is>
-          <t>47.9</t>
-        </is>
-      </c>
-      <c r="F1834" t="inlineStr">
-        <is>
-          <t>47.2</t>
-        </is>
-      </c>
-      <c r="G1834" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1835">
-      <c r="A1835" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1835" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing EmploymentAPR</t>
-        </is>
-      </c>
-      <c r="C1835" t="inlineStr"/>
-      <c r="D1835" t="inlineStr">
-        <is>
-          <t>44.7</t>
-        </is>
-      </c>
-      <c r="E1835" t="inlineStr"/>
-      <c r="F1835" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
-      <c r="G1835" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1836">
-      <c r="A1836" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1836" t="inlineStr">
-        <is>
-          <t>Construction Spending MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1836" t="inlineStr"/>
-      <c r="D1836" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E1836" t="inlineStr"/>
-      <c r="F1836" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G1836" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1837">
-      <c r="A1837" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1837" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing New OrdersAPR</t>
-        </is>
-      </c>
-      <c r="C1837" t="inlineStr"/>
-      <c r="D1837" t="inlineStr">
-        <is>
-          <t>45.2</t>
-        </is>
-      </c>
-      <c r="E1837" t="inlineStr"/>
-      <c r="F1837" t="inlineStr">
-        <is>
-          <t>44.3</t>
-        </is>
-      </c>
-      <c r="G1837" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1838">
-      <c r="A1838" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1838" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing PricesAPR</t>
-        </is>
-      </c>
-      <c r="C1838" t="inlineStr"/>
-      <c r="D1838" t="inlineStr">
-        <is>
-          <t>69.4</t>
-        </is>
-      </c>
-      <c r="E1838" t="inlineStr"/>
-      <c r="F1838" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="G1838" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1839">
-      <c r="A1839" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1839" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeAPR/25</t>
-        </is>
-      </c>
-      <c r="C1839" t="inlineStr"/>
-      <c r="D1839" t="inlineStr">
-        <is>
-          <t>88Bcf</t>
-        </is>
-      </c>
-      <c r="E1839" t="inlineStr"/>
-      <c r="F1839" t="inlineStr"/>
-      <c r="G1839" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1840">
-      <c r="A1840" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1840" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1840" t="inlineStr"/>
-      <c r="D1840" t="inlineStr">
-        <is>
-          <t>4.220%</t>
-        </is>
-      </c>
-      <c r="E1840" t="inlineStr"/>
-      <c r="F1840" t="inlineStr"/>
-      <c r="G1840" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1841">
-      <c r="A1841" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1841" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1841" t="inlineStr"/>
-      <c r="D1841" t="inlineStr">
-        <is>
-          <t>4.225%</t>
-        </is>
-      </c>
-      <c r="E1841" t="inlineStr"/>
-      <c r="F1841" t="inlineStr"/>
-      <c r="G1841" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1842">
-      <c r="A1842" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1842" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateMAY/01</t>
-        </is>
-      </c>
-      <c r="C1842" t="inlineStr"/>
-      <c r="D1842" t="inlineStr"/>
-      <c r="E1842" t="inlineStr"/>
-      <c r="F1842" t="inlineStr"/>
-      <c r="G1842" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1843">
-      <c r="A1843" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1843" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateMAY/01</t>
-        </is>
-      </c>
-      <c r="C1843" t="inlineStr"/>
-      <c r="D1843" t="inlineStr">
-        <is>
-          <t>6.81%</t>
-        </is>
-      </c>
-      <c r="E1843" t="inlineStr"/>
-      <c r="F1843" t="inlineStr"/>
-      <c r="G1843" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1844">
-      <c r="A1844" t="inlineStr">
-        <is>
-          <t>Friday May 02 2025</t>
-        </is>
-      </c>
-      <c r="B1844" t="inlineStr"/>
-      <c r="C1844" t="inlineStr"/>
-      <c r="D1844" t="inlineStr"/>
-      <c r="E1844" t="inlineStr"/>
-      <c r="F1844" t="inlineStr"/>
-      <c r="G1844" t="inlineStr"/>
-    </row>
-    <row r="1845">
-      <c r="A1845" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1845" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetAPR/30</t>
-        </is>
-      </c>
-      <c r="C1845" t="inlineStr"/>
-      <c r="D1845" t="inlineStr">
-        <is>
-          <t>$6.73T</t>
-        </is>
-      </c>
-      <c r="E1845" t="inlineStr"/>
-      <c r="F1845" t="inlineStr"/>
-      <c r="G1845" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1846">
-      <c r="A1846" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1846" t="inlineStr">
-        <is>
-          <t>Non Farm PayrollsAPR</t>
-        </is>
-      </c>
-      <c r="C1846" t="inlineStr"/>
-      <c r="D1846" t="inlineStr">
-        <is>
-          <t>228K</t>
-        </is>
-      </c>
-      <c r="E1846" t="inlineStr">
-        <is>
-          <t>130K</t>
-        </is>
-      </c>
-      <c r="F1846" t="inlineStr">
-        <is>
-          <t>140K</t>
-        </is>
-      </c>
-      <c r="G1846" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1847">
-      <c r="A1847" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1847" t="inlineStr">
-        <is>
-          <t>Unemployment RateAPR</t>
-        </is>
-      </c>
-      <c r="C1847" t="inlineStr"/>
-      <c r="D1847" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="E1847" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="F1847" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="G1847" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1848">
-      <c r="A1848" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1848" t="inlineStr">
-        <is>
-          <t>Average Hourly Earnings MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1848" t="inlineStr"/>
-      <c r="D1848" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E1848" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1848" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G1848" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1849">
-      <c r="A1849" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1849" t="inlineStr">
-        <is>
-          <t>Average Hourly Earnings YoYAPR</t>
-        </is>
-      </c>
-      <c r="C1849" t="inlineStr"/>
-      <c r="D1849" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="E1849" t="inlineStr"/>
-      <c r="F1849" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="G1849" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1850">
-      <c r="A1850" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1850" t="inlineStr">
-        <is>
-          <t>Participation RateAPR</t>
-        </is>
-      </c>
-      <c r="C1850" t="inlineStr"/>
-      <c r="D1850" t="inlineStr">
-        <is>
-          <t>62.5%</t>
-        </is>
-      </c>
-      <c r="E1850" t="inlineStr"/>
-      <c r="F1850" t="inlineStr">
-        <is>
-          <t>62.5%</t>
-        </is>
-      </c>
-      <c r="G1850" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1851">
-      <c r="A1851" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1851" t="inlineStr">
-        <is>
-          <t>Average Weekly HoursAPR</t>
-        </is>
-      </c>
-      <c r="C1851" t="inlineStr"/>
-      <c r="D1851" t="inlineStr">
-        <is>
-          <t>34.2</t>
-        </is>
-      </c>
-      <c r="E1851" t="inlineStr">
-        <is>
-          <t>34.2</t>
-        </is>
-      </c>
-      <c r="F1851" t="inlineStr">
-        <is>
-          <t>34.2</t>
-        </is>
-      </c>
-      <c r="G1851" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1852">
-      <c r="A1852" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1852" t="inlineStr">
-        <is>
-          <t>Government PayrollsAPR</t>
-        </is>
-      </c>
-      <c r="C1852" t="inlineStr"/>
-      <c r="D1852" t="inlineStr">
-        <is>
-          <t>19K</t>
-        </is>
-      </c>
-      <c r="E1852" t="inlineStr"/>
-      <c r="F1852" t="inlineStr">
-        <is>
-          <t>-3K</t>
-        </is>
-      </c>
-      <c r="G1852" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1853">
-      <c r="A1853" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1853" t="inlineStr">
-        <is>
-          <t>Manufacturing PayrollsAPR</t>
-        </is>
-      </c>
-      <c r="C1853" t="inlineStr"/>
-      <c r="D1853" t="inlineStr">
-        <is>
-          <t>1K</t>
-        </is>
-      </c>
-      <c r="E1853" t="inlineStr"/>
-      <c r="F1853" t="inlineStr">
-        <is>
-          <t>5K</t>
-        </is>
-      </c>
-      <c r="G1853" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1854">
-      <c r="A1854" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1854" t="inlineStr">
-        <is>
-          <t>Nonfarm Payrolls PrivateAPR</t>
-        </is>
-      </c>
-      <c r="C1854" t="inlineStr"/>
-      <c r="D1854" t="inlineStr">
-        <is>
-          <t>209K</t>
-        </is>
-      </c>
-      <c r="E1854" t="inlineStr">
-        <is>
-          <t>125K</t>
-        </is>
-      </c>
-      <c r="F1854" t="inlineStr">
-        <is>
-          <t>133K</t>
-        </is>
-      </c>
-      <c r="G1854" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1855">
-      <c r="A1855" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1855" t="inlineStr">
-        <is>
-          <t>U-6 Unemployment RateAPR</t>
-        </is>
-      </c>
-      <c r="C1855" t="inlineStr"/>
-      <c r="D1855" t="inlineStr">
-        <is>
-          <t>7.9%</t>
-        </is>
-      </c>
-      <c r="E1855" t="inlineStr"/>
-      <c r="F1855" t="inlineStr">
-        <is>
-          <t>8.0%</t>
-        </is>
-      </c>
-      <c r="G1855" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1856">
-      <c r="A1856" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1856" t="inlineStr">
-        <is>
-          <t>Factory Orders MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1856" t="inlineStr"/>
-      <c r="D1856" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="E1856" t="inlineStr"/>
-      <c r="F1856" t="inlineStr">
-        <is>
-          <t>5.4%</t>
-        </is>
-      </c>
-      <c r="G1856" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1857">
-      <c r="A1857" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1857" t="inlineStr">
-        <is>
-          <t>Factory Orders ex TransportationMAR</t>
-        </is>
-      </c>
-      <c r="C1857" t="inlineStr"/>
-      <c r="D1857" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E1857" t="inlineStr"/>
-      <c r="F1857" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1857" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1858">
-      <c r="A1858" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1858" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAY/02</t>
-        </is>
-      </c>
-      <c r="C1858" t="inlineStr"/>
-      <c r="D1858" t="inlineStr"/>
-      <c r="E1858" t="inlineStr"/>
-      <c r="F1858" t="inlineStr"/>
-      <c r="G1858" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1859">
-      <c r="A1859" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1859" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAY/02</t>
-        </is>
-      </c>
-      <c r="C1859" t="inlineStr"/>
-      <c r="D1859" t="inlineStr"/>
-      <c r="E1859" t="inlineStr"/>
-      <c r="F1859" t="inlineStr"/>
-      <c r="G1859" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1860">
-      <c r="A1860" t="inlineStr"/>
-      <c r="B1860" t="inlineStr">
-        <is>
-          <t>Total Vehicle SalesAPR</t>
-        </is>
-      </c>
-      <c r="C1860" t="inlineStr"/>
-      <c r="D1860" t="inlineStr">
-        <is>
-          <t>17.77M</t>
-        </is>
-      </c>
-      <c r="E1860" t="inlineStr"/>
-      <c r="F1860" t="inlineStr"/>
-      <c r="G1860" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1861">
-      <c r="A1861" t="inlineStr">
-        <is>
-          <t>Saturday May 03 2025</t>
-        </is>
-      </c>
-      <c r="B1861" t="inlineStr"/>
-      <c r="C1861" t="inlineStr"/>
-      <c r="D1861" t="inlineStr"/>
-      <c r="E1861" t="inlineStr"/>
-      <c r="F1861" t="inlineStr"/>
-      <c r="G1861" t="inlineStr"/>
-    </row>
-    <row r="1862">
-      <c r="A1862" t="inlineStr">
-        <is>
-          <t>Monday May 05 2025</t>
-        </is>
-      </c>
-      <c r="B1862" t="inlineStr"/>
-      <c r="C1862" t="inlineStr"/>
-      <c r="D1862" t="inlineStr"/>
-      <c r="E1862" t="inlineStr"/>
-      <c r="F1862" t="inlineStr"/>
-      <c r="G1862" t="inlineStr"/>
+      <c r="F1798" t="inlineStr"/>
+      <c r="G1798" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-05.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-05.xlsx
@@ -48653,7 +48653,11 @@
           <t>481</t>
         </is>
       </c>
-      <c r="E1772" t="inlineStr"/>
+      <c r="E1772" t="inlineStr">
+        <is>
+          <t>479</t>
+        </is>
+      </c>
       <c r="F1772" t="inlineStr"/>
       <c r="G1772" t="inlineStr">
         <is>
@@ -49424,7 +49428,11 @@
           <t>155K</t>
         </is>
       </c>
-      <c r="E1803" t="inlineStr"/>
+      <c r="E1803" t="inlineStr">
+        <is>
+          <t>130K</t>
+        </is>
+      </c>
       <c r="F1803" t="inlineStr">
         <is>
           <t>110K</t>
@@ -49544,10 +49552,14 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="E1807" t="inlineStr"/>
+      <c r="E1807" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="F1807" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="G1807" t="inlineStr">
@@ -51046,10 +51058,14 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="E1861" t="inlineStr"/>
+      <c r="E1861" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
       <c r="F1861" t="inlineStr">
         <is>
-          <t>5.4%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="G1861" t="inlineStr">

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-05.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-05.xlsx
@@ -48859,7 +48859,11 @@
           <t>$-147.91B</t>
         </is>
       </c>
-      <c r="E1782" t="inlineStr"/>
+      <c r="E1782" t="inlineStr">
+        <is>
+          <t>$-146B</t>
+        </is>
+      </c>
       <c r="F1782" t="inlineStr">
         <is>
           <t>$-140.0B</t>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-05.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1867"/>
+  <dimension ref="A1:G1874"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48482,7 +48482,11 @@
           <t>Michigan Consumer Sentiment FinalAPR</t>
         </is>
       </c>
-      <c r="C1767" t="inlineStr"/>
+      <c r="C1767" t="inlineStr">
+        <is>
+          <t>52.2</t>
+        </is>
+      </c>
       <c r="D1767" t="inlineStr">
         <is>
           <t>57.0</t>
@@ -48515,7 +48519,11 @@
           <t>Michigan 5 Year Inflation Expectations FinalAPR</t>
         </is>
       </c>
-      <c r="C1768" t="inlineStr"/>
+      <c r="C1768" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
       <c r="D1768" t="inlineStr">
         <is>
           <t>4.1%</t>
@@ -48548,7 +48556,11 @@
           <t>Michigan Consumer Expectations FinalAPR</t>
         </is>
       </c>
-      <c r="C1769" t="inlineStr"/>
+      <c r="C1769" t="inlineStr">
+        <is>
+          <t>47.3</t>
+        </is>
+      </c>
       <c r="D1769" t="inlineStr">
         <is>
           <t>52.6</t>
@@ -48581,7 +48593,11 @@
           <t>Michigan Current Conditions FinalAPR</t>
         </is>
       </c>
-      <c r="C1770" t="inlineStr"/>
+      <c r="C1770" t="inlineStr">
+        <is>
+          <t>59.8</t>
+        </is>
+      </c>
       <c r="D1770" t="inlineStr">
         <is>
           <t>63.8</t>
@@ -48614,7 +48630,11 @@
           <t>Michigan Inflation Expectations FinalAPR</t>
         </is>
       </c>
-      <c r="C1771" t="inlineStr"/>
+      <c r="C1771" t="inlineStr">
+        <is>
+          <t>6.5%</t>
+        </is>
+      </c>
       <c r="D1771" t="inlineStr">
         <is>
           <t>5%</t>
@@ -48921,7 +48941,11 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="E1784" t="inlineStr"/>
+      <c r="E1784" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="F1784" t="inlineStr">
         <is>
           <t>-0.2%</t>
@@ -48975,7 +48999,11 @@
           <t>4.7%</t>
         </is>
       </c>
-      <c r="E1786" t="inlineStr"/>
+      <c r="E1786" t="inlineStr">
+        <is>
+          <t>4.8%</t>
+        </is>
+      </c>
       <c r="F1786" t="inlineStr">
         <is>
           <t>4.5%</t>
@@ -49033,7 +49061,11 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="E1788" t="inlineStr"/>
+      <c r="E1788" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F1788" t="inlineStr">
         <is>
           <t>1%</t>
@@ -51196,6 +51228,217 @@
       <c r="F1867" t="inlineStr"/>
       <c r="G1867" t="inlineStr"/>
     </row>
+    <row r="1868">
+      <c r="A1868" t="inlineStr">
+        <is>
+          <t>07:15 PM</t>
+        </is>
+      </c>
+      <c r="B1868" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Composite PMI FinalAPR</t>
+        </is>
+      </c>
+      <c r="C1868" t="inlineStr"/>
+      <c r="D1868" t="inlineStr">
+        <is>
+          <t>53.5</t>
+        </is>
+      </c>
+      <c r="E1868" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="F1868" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="G1868" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1869">
+      <c r="A1869" t="inlineStr">
+        <is>
+          <t>07:15 PM</t>
+        </is>
+      </c>
+      <c r="B1869" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Services PMI FinalAPR</t>
+        </is>
+      </c>
+      <c r="C1869" t="inlineStr"/>
+      <c r="D1869" t="inlineStr">
+        <is>
+          <t>54.4</t>
+        </is>
+      </c>
+      <c r="E1869" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
+      <c r="F1869" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
+      <c r="G1869" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1870">
+      <c r="A1870" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1870" t="inlineStr">
+        <is>
+          <t>ISM Services PMIAPR</t>
+        </is>
+      </c>
+      <c r="C1870" t="inlineStr"/>
+      <c r="D1870" t="inlineStr">
+        <is>
+          <t>50.8</t>
+        </is>
+      </c>
+      <c r="E1870" t="inlineStr"/>
+      <c r="F1870" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="G1870" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1871">
+      <c r="A1871" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1871" t="inlineStr">
+        <is>
+          <t>ISM Services Business ActivityAPR</t>
+        </is>
+      </c>
+      <c r="C1871" t="inlineStr"/>
+      <c r="D1871" t="inlineStr">
+        <is>
+          <t>55.9</t>
+        </is>
+      </c>
+      <c r="E1871" t="inlineStr"/>
+      <c r="F1871" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="G1871" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1872">
+      <c r="A1872" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1872" t="inlineStr">
+        <is>
+          <t>ISM Services EmploymentAPR</t>
+        </is>
+      </c>
+      <c r="C1872" t="inlineStr"/>
+      <c r="D1872" t="inlineStr">
+        <is>
+          <t>46.2</t>
+        </is>
+      </c>
+      <c r="E1872" t="inlineStr"/>
+      <c r="F1872" t="inlineStr">
+        <is>
+          <t>46.5</t>
+        </is>
+      </c>
+      <c r="G1872" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1873">
+      <c r="A1873" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1873" t="inlineStr">
+        <is>
+          <t>ISM Services New OrdersAPR</t>
+        </is>
+      </c>
+      <c r="C1873" t="inlineStr"/>
+      <c r="D1873" t="inlineStr">
+        <is>
+          <t>50.4</t>
+        </is>
+      </c>
+      <c r="E1873" t="inlineStr"/>
+      <c r="F1873" t="inlineStr">
+        <is>
+          <t>49.2</t>
+        </is>
+      </c>
+      <c r="G1873" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1874">
+      <c r="A1874" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1874" t="inlineStr">
+        <is>
+          <t>ISM Services PricesAPR</t>
+        </is>
+      </c>
+      <c r="C1874" t="inlineStr"/>
+      <c r="D1874" t="inlineStr">
+        <is>
+          <t>60.9</t>
+        </is>
+      </c>
+      <c r="E1874" t="inlineStr"/>
+      <c r="F1874" t="inlineStr">
+        <is>
+          <t>60.5</t>
+        </is>
+      </c>
+      <c r="G1874" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-05.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-05.xlsx
@@ -48948,7 +48948,7 @@
       </c>
       <c r="F1784" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="G1784" t="inlineStr">
@@ -49006,7 +49006,7 @@
       </c>
       <c r="F1786" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="G1786" t="inlineStr">
@@ -49035,7 +49035,7 @@
       <c r="E1787" t="inlineStr"/>
       <c r="F1787" t="inlineStr">
         <is>
-          <t>441.2</t>
+          <t>438.2</t>
         </is>
       </c>
       <c r="G1787" t="inlineStr">
@@ -49068,7 +49068,7 @@
       </c>
       <c r="F1788" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="G1788" t="inlineStr">
@@ -49097,7 +49097,7 @@
       <c r="E1789" t="inlineStr"/>
       <c r="F1789" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="G1789" t="inlineStr">
@@ -49152,7 +49152,11 @@
           <t>7.568M</t>
         </is>
       </c>
-      <c r="E1791" t="inlineStr"/>
+      <c r="E1791" t="inlineStr">
+        <is>
+          <t>7.5M</t>
+        </is>
+      </c>
       <c r="F1791" t="inlineStr">
         <is>
           <t>7.4M</t>
@@ -49621,10 +49625,14 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="E1808" t="inlineStr"/>
+      <c r="E1808" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="F1808" t="inlineStr">
         <is>
-          <t>127.3%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="G1808" t="inlineStr">
@@ -49787,10 +49795,14 @@
           <t>47.6</t>
         </is>
       </c>
-      <c r="E1814" t="inlineStr"/>
+      <c r="E1814" t="inlineStr">
+        <is>
+          <t>45.9</t>
+        </is>
+      </c>
       <c r="F1814" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>46</t>
         </is>
       </c>
       <c r="G1814" t="inlineStr">
@@ -49973,10 +49985,14 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="E1820" t="inlineStr"/>
+      <c r="E1820" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="F1820" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="G1820" t="inlineStr">
@@ -50352,7 +50368,11 @@
           <t>222K</t>
         </is>
       </c>
-      <c r="E1835" t="inlineStr"/>
+      <c r="E1835" t="inlineStr">
+        <is>
+          <t>221K</t>
+        </is>
+      </c>
       <c r="F1835" t="inlineStr">
         <is>
           <t>225.0K</t>
@@ -50534,7 +50554,11 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="E1841" t="inlineStr"/>
+      <c r="E1841" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F1841" t="inlineStr">
         <is>
           <t>0.3%</t>
@@ -50592,7 +50616,11 @@
           <t>69.4</t>
         </is>
       </c>
-      <c r="E1843" t="inlineStr"/>
+      <c r="E1843" t="inlineStr">
+        <is>
+          <t>70.2</t>
+        </is>
+      </c>
       <c r="F1843" t="inlineStr">
         <is>
           <t>70</t>
@@ -51194,7 +51222,11 @@
           <t>17.77M</t>
         </is>
       </c>
-      <c r="E1865" t="inlineStr"/>
+      <c r="E1865" t="inlineStr">
+        <is>
+          <t>15.7M</t>
+        </is>
+      </c>
       <c r="F1865" t="inlineStr"/>
       <c r="G1865" t="inlineStr">
         <is>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-05.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1874"/>
+  <dimension ref="A1:G1876"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51471,6 +51471,48 @@
         </is>
       </c>
     </row>
+    <row r="1875">
+      <c r="A1875" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B1875" t="inlineStr">
+        <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C1875" t="inlineStr"/>
+      <c r="D1875" t="inlineStr"/>
+      <c r="E1875" t="inlineStr"/>
+      <c r="F1875" t="inlineStr"/>
+      <c r="G1875" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1876">
+      <c r="A1876" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B1876" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C1876" t="inlineStr"/>
+      <c r="D1876" t="inlineStr"/>
+      <c r="E1876" t="inlineStr"/>
+      <c r="F1876" t="inlineStr"/>
+      <c r="G1876" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-05.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1876"/>
+  <dimension ref="A1:G1877"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48667,7 +48667,11 @@
           <t>Baker Hughes Oil Rig CountAPR/25</t>
         </is>
       </c>
-      <c r="C1772" t="inlineStr"/>
+      <c r="C1772" t="inlineStr">
+        <is>
+          <t>483</t>
+        </is>
+      </c>
       <c r="D1772" t="inlineStr">
         <is>
           <t>481</t>
@@ -48696,7 +48700,11 @@
           <t>Baker Hughes Total Rigs CountAPR/25</t>
         </is>
       </c>
-      <c r="C1773" t="inlineStr"/>
+      <c r="C1773" t="inlineStr">
+        <is>
+          <t>587</t>
+        </is>
+      </c>
       <c r="D1773" t="inlineStr">
         <is>
           <t>585</t>
@@ -51179,7 +51187,11 @@
         </is>
       </c>
       <c r="C1863" t="inlineStr"/>
-      <c r="D1863" t="inlineStr"/>
+      <c r="D1863" t="inlineStr">
+        <is>
+          <t>483</t>
+        </is>
+      </c>
       <c r="E1863" t="inlineStr"/>
       <c r="F1863" t="inlineStr"/>
       <c r="G1863" t="inlineStr">
@@ -51200,7 +51212,11 @@
         </is>
       </c>
       <c r="C1864" t="inlineStr"/>
-      <c r="D1864" t="inlineStr"/>
+      <c r="D1864" t="inlineStr">
+        <is>
+          <t>587</t>
+        </is>
+      </c>
       <c r="E1864" t="inlineStr"/>
       <c r="F1864" t="inlineStr"/>
       <c r="G1864" t="inlineStr">
@@ -51513,6 +51529,31 @@
         </is>
       </c>
     </row>
+    <row r="1877">
+      <c r="A1877" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B1877" t="inlineStr">
+        <is>
+          <t>3-Year Note Auction</t>
+        </is>
+      </c>
+      <c r="C1877" t="inlineStr"/>
+      <c r="D1877" t="inlineStr">
+        <is>
+          <t>3.784%</t>
+        </is>
+      </c>
+      <c r="E1877" t="inlineStr"/>
+      <c r="F1877" t="inlineStr"/>
+      <c r="G1877" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
